--- a/PROJECT/BC/BC_EXCEL_SHEETS/Fix_Costs.xlsx
+++ b/PROJECT/BC/BC_EXCEL_SHEETS/Fix_Costs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="17700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -169,7 +169,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="de-DE" baseline="0"/>
-              <a:t> Fix Costs</a:t>
+              <a:t> Fix Costs per Person</a:t>
             </a:r>
             <a:endParaRPr lang="de-DE"/>
           </a:p>
@@ -265,10 +265,10 @@
                   <c:v>249</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="&quot;€&quot;#,##0_);[Red]\(&quot;€&quot;#,##0\)">
-                  <c:v>1494</c:v>
+                  <c:v>1245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -322,10 +322,10 @@
                   <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="&quot;€&quot;#,##0_);[Red]\(&quot;€&quot;#,##0\)">
-                  <c:v>900</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1448,8 +1448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="141" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1486,11 +1486,11 @@
         <v>249</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ref="D5:D7" si="0">B5*C5</f>
-        <v>1494</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1501,11 +1501,11 @@
         <v>150</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>750</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="D8" s="4">
         <f>D5+D6+D7</f>
-        <v>2394</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
